--- a/Final_Submission/Tests11/5_StressTest/ExcelQuery.xlsx
+++ b/Final_Submission/Tests11/5_StressTest/ExcelQuery.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>Index</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>1 15 16,1 15 17,1 15 18,1 15 19,1 15 20,1 15 21,1 15 22,1 15 23,1 15 24,1 15 25,1 15 26,1 15 27,1 15 28,1 15 29,1 15 30,1 15 31,1 15 32,1 15 33,1 15 34,1 15 35,1 15 36,1 15 37,1 15 38,1 15 39,10 15 16,10 15 17,10 15 18,10 15 19,10 15 20,10 15 21,10 15 22,10 15 23,10 15 24,10 15 25,10 15 26,10 15 27,10 15 28,10 15 29,10 15 30,10 15 31,10 15 32,10 15 33,10 15 34,10 15 35,10 15 36,10 15 37,10 15 38,10 15 39,104 109 110,104 109 111,104 109 112,104 109 113,104 109 114,104 109 115,104 109 116,104 109 117,104 109 118,104 109 119,104 109 120,104 109 121,104 109 122,104 109 123,104 109 124,104 109 125,104 109 126,104 109 127,104 109 128,104 109 129,104 109 130,104 109 131,105 109 110,105 109 111,105 109 112,105 109 113,105 109 114,105 109 115,105 109 116,105 109 117,105 109 118,105 109 119,105 109 120,105 109 121,105 109 122,105 109 123,105 109 124,105 109 125,105 109 126,105 109 127,105 109 128,105 109 129,105 109 130,105 109 131,106 109 110,106 109 111,106 109 112,106 109 113,106 109 114,106 109 115,106 109 116,106 109 117,106 109 118,106 109 119,106 109 120,106 109 121,106 109 122,106 109 123,106 109 124,106 109 125,106 109 126,106 109 127,106 109 128,106 109 129,106 109 130,106 109 131,107 109 110,107 109 111,107 109 112,107 109 113,107 109 114,107 109 115,107 109 116,107 109 117,107 109 118,107 109 119,107 109 120,107 109 121,107 109 122,107 109 123,107 109 124,107 109 125,107 109 126,107 109 127,107 109 128,107 109 129,107 109 130,107 109 131,108 109 110,108 109 111,108 109 112,108 109 113,108 109 114,108 109 115,108 109 116,108 109 117,108 109 118,108 109 119,108 109 120,108 109 121,108 109 122,108 109 123,108 109 124,108 109 125,108 109 126,108 109 127,108 109 128,108 109 129,108 109 130,108 109 131,11 15 16,11 15 17,11 15 18,11 15 19,11 15 20,11 15 21,11 15 22,11 15 23,11 15 24,11 15 25,11 15 26,11 15 27,11 15 28,11 15 29,11 15 30,11 15 31,11 15 32,11 15 33,11 15 34,11 15 35,11 15 36,11 15 37,11 15 38,11 15 39,12 15 16,12 15 17,12 15 18,12 15 19,12 15 20,12 15 21,12 15 22,12 15 23,12 15 24,12 15 25,12 15 26,12 15 27,12 15 28,12 15 29,12 15 30,12 15 31,12 15 32,12 15 33,12 15 34,12 15 35,12 15 36,12 15 37,12 15 38,12 15 39,122 123 124,122 126 127,122 126 128,123 126 127,123 126 128,125 126 127,125 126 128,13 15 16,13 15 17,13 15 18,13 15 19,13 15 20,13 15 21,13 15 22,13 15 23,13 15 24,13 15 25,13 15 26,13 15 27,13 15 28,13 15 29,13 15 30,13 15 31,13 15 32,13 15 33,13 15 34,13 15 35,13 15 36,13 15 37,13 15 38,13 15 39,134 142 143,134 142 144,134 142 145,135 142 143,135 142 144,135 142 145,136 142 143,136 142 144,136 142 145,137 142 143,137 142 144,137 142 145,138 142 143,138 142 144,138 142 145,139 142 143,139 142 144,139 142 145,14 15 16,14 15 17,14 15 18,14 15 19,14 15 20,14 15 21,14 15 22,14 15 23,14 15 24,14 15 25,14 15 26,14 15 27,14 15 28,14 15 29,14 15 30,14 15 31,14 15 32,14 15 33,14 15 34,14 15 35,14 15 36,14 15 37,14 15 38,14 15 39,140 142 143,140 142 144,140 142 145,141 142 143,141 142 144,141 142 145,149 152 153,149 152 154,149 152 155,149 152 156,149 152 157,149 152 158,149 152 159,149 163 164,149 163 165,150 152 153,150 152 154,150 152 155,150 152 156,150 152 157,150 152 158,150 152 159,150 163 164,150 163 165,151 152 153,151 152 154,151 152 155,151 152 156,151 152 157,151 152 158,151 152 159,151 163 164,151 163 165,152 163 164,152 163 165,153 155 156,153 155 157,153 155 158,154 155 156,154 155 157,154 155 158,160 163 164,160 163 165,161 163 164,161 163 165,162 163 164,162 163 165,169 177 178,169 177 179,169 177 180,169 177 181,169 177 182,170 171 172,170 171 173,170 171 174,170 175 176,171 175 176,172 173 174,178 179 180,178 179 181,183 186 187,184 186 187,185 186 187,197 200 201,197 200 202,197 203 204,197 203 205,197 203 206,197 203 207,197 203 208,197 203 209,197 203 210,197 203 211,197 203 212,197 203 213,198 200 201,198 200 202,198 203 204,198 203 205,198 203 206,198 203 207,198 203 208,198 203 209,198 203 210,198 203 211,198 203 212,198 203 213,199 200 201,199 200 202,199 203 204,199 203 205,199 203 206,199 203 207,199 203 208,199 203 209,199 203 210,199 203 211,199 203 212,199 203 213,2 15 16,2 15 17,2 15 18,2 15 19,2 15 20,2 15 21,2 15 22,2 15 23,2 15 24,2 15 25,2 15 26,2 15 27,2 15 28,2 15 29,2 15 30,2 15 31,2 15 32,2 15 33,2 15 34,2 15 35,2 15 36,2 15 37,2 15 38,2 15 39,200 203 204,200 203 205,200 203 206,200 203 207,200 203 208,200 203 209,200 203 210,200 203 211,200 203 212,200 203 213,3 15 16,3 15 17,3 15 18,3 15 19,3 15 20,3 15 21,3 15 22,3 15 23,3 15 24,3 15 25,3 15 26,3 15 27,3 15 28,3 15 29,3 15 30,3 15 31,3 15 32,3 15 33,3 15 34,3 15 35,3 15 36,3 15 37,3 15 38,3 15 39,4 15 16,4 15 17,4 15 18,4 15 19,4 15 20,4 15 21,4 15 22,4 15 23,4 15 24,4 15 25,4 15 26,4 15 27,4 15 28,4 15 29,4 15 30,4 15 31,4 15 32,4 15 33,4 15 34,4 15 35,4 15 36,4 15 37,4 15 38,4 15 39,44 45 46,44 45 47,44 45 48,44 45 49,44 45 50,44 45 51,44 45 52,44 45 53,44 45 54,44 45 55,44 45 56,44 45 57,44 45 58,44 45 59,44 45 60,44 45 61,44 45 62,44 45 63,44 45 64,44 45 65,44 45 66,44 45 67,46 48 49,46 48 50,46 48 51,46 48 52,46 48 53,46 48 54,46 48 55,46 48 56,46 48 57,46 48 58,46 48 59,46 48 60,46 48 61,46 48 62,46 48 63,46 48 64,46 48 65,46 48 66,46 48 67,47 48 49,47 48 50,47 48 51,47 48 52,47 48 53,47 48 54,47 48 55,47 48 56,47 48 57,47 48 58,47 48 59,47 48 60,47 48 61,47 48 62,47 48 63,47 48 64,47 48 65,47 48 66,47 48 67,49 55 56,49 55 57,49 55 58,49 55 59,49 55 60,49 55 61,49 64 65,49 64 66,49 64 67,5 15 16,5 15 17,5 15 18,5 15 19,5 15 20,5 15 21,5 15 22,5 15 23,5 15 24,5 15 25,5 15 26,5 15 27,5 15 28,5 15 29,5 15 30,5 15 31,5 15 32,5 15 33,5 15 34,5 15 35,5 15 36,5 15 37,5 15 38,5 15 39,55 64 65,55 64 66,55 64 67,6 15 16,6 15 17,6 15 18,6 15 19,6 15 20,6 15 21,6 15 22,6 15 23,6 15 24,6 15 25,6 15 26,6 15 27,6 15 28,6 15 29,6 15 30,6 15 31,6 15 32,6 15 33,6 15 34,6 15 35,6 15 36,6 15 37,6 15 38,6 15 39,62 64 65,62 64 66,62 64 67,63 64 65,63 64 66,63 64 67,7 15 16,7 15 17,7 15 18,7 15 19,7 15 20,7 15 21,7 15 22,7 15 23,7 15 24,7 15 25,7 15 26,7 15 27,7 15 28,7 15 29,7 15 30,7 15 31,7 15 32,7 15 33,7 15 34,7 15 35,7 15 36,7 15 37,7 15 38,7 15 39,71 76 100,71 76 101,71 76 102,71 76 103,71 76 77,71 76 78,71 76 79,71 76 80,71 76 81,71 76 82,71 76 83,71 76 84,71 76 85,71 76 86,71 76 87,71 76 88,71 76 89,71 76 90,71 76 91,71 76 92,71 76 93,71 76 94,71 76 95,71 76 96,71 76 97,71 76 98,71 76 99,72 76 100,72 76 101,72 76 102,72 76 103,72 76 77,72 76 78,72 76 79,72 76 80,72 76 81,72 76 82,72 76 83,72 76 84,72 76 85,72 76 86,72 76 87,72 76 88,72 76 89,72 76 90,72 76 91,72 76 92,72 76 93,72 76 94,72 76 95,72 76 96,72 76 97,72 76 98,72 76 99,73 76 100,73 76 101,73 76 102,73 76 103,73 76 77,73 76 78,73 76 79,73 76 80,73 76 81,73 76 82,73 76 83,73 76 84,73 76 85,73 76 86,73 76 87,73 76 88,73 76 89,73 76 90,73 76 91,73 76 92,73 76 93,73 76 94,73 76 95,73 76 96,73 76 97,73 76 98,73 76 99,74 76 100,74 76 101,74 76 102,74 76 103,74 76 77,74 76 78,74 76 79,74 76 80,74 76 81,74 76 82,74 76 83,74 76 84,74 76 85,74 76 86,74 76 87,74 76 88,74 76 89,74 76 90,74 76 91,74 76 92,74 76 93,74 76 94,74 76 95,74 76 96,74 76 97,74 76 98,74 76 99,75 76 100,75 76 101,75 76 102,75 76 103,75 76 77,75 76 78,75 76 79,75 76 80,75 76 81,75 76 82,75 76 83,75 76 84,75 76 85,75 76 86,75 76 87,75 76 88,75 76 89,75 76 90,75 76 91,75 76 92,75 76 93,75 76 94,75 76 95,75 76 96,75 76 97,75 76 98,75 76 99,78 88 89,78 88 90,78 88 91,78 88 92,78 88 93,78 88 94,78 88 95,78 88 96,78 88 97,78 98 99,8 15 16,8 15 17,8 15 18,8 15 19,8 15 20,8 15 21,8 15 22,8 15 23,8 15 24,8 15 25,8 15 26,8 15 27,8 15 28,8 15 29,8 15 30,8 15 31,8 15 32,8 15 33,8 15 34,8 15 35,8 15 36,8 15 37,8 15 38,8 15 39,83 84 85,88 98 99,9 15 16,9 15 17,9 15 18,9 15 19,9 15 20,9 15 21,9 15 22,9 15 23,9 15 24,9 15 25,9 15 26,9 15 27,9 15 28,9 15 29,9 15 30,9 15 31,9 15 32,9 15 33,9 15 34,9 15 35,9 15 36,9 15 37,9 15 38,9 15 39,92 94 95,92 94 96,93 94 95,93 94 96</t>
+  </si>
+  <si>
+    <t>1,10,104,105,106,107,108,11,12,122,123,125,13,134,135,136,137,138,139,14,140,141,149,150,151,152,153,154,160,161,162,169,170,171,172,178,183,184,185,197,198,199,2,200,3,4,44,46,47,49,5,55,6,62,63,7,71,72,73,74,75,78,8,83,88,9,92,93</t>
   </si>
 </sst>
 </file>
@@ -2337,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E14A3-23C2-45E6-9AB0-F9FD5DC183C0}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2591,9 @@
       <c r="C15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>149</v>
       </c>
@@ -2603,7 +2608,9 @@
       <c r="C16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>151</v>
       </c>
@@ -2618,7 +2625,9 @@
       <c r="C17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E17" s="10" t="s">
         <v>153</v>
       </c>
